--- a/data/trans_dic/P19C10_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P19C10_2023-Provincia-trans_dic.xlsx
@@ -506,7 +506,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población cuyo motivo por su última visita al dentista fue por dolor de mandíbula / solo 2023 (tasa de respuesta: 99,54%)</t>
+          <t>Población cuyo motivo por su última visita al dentista fue por dolor de mandíbula (tasa de respuesta: 99,54%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1078,7 +1078,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población cuyo motivo por su última visita al dentista fue por dolor de mandíbula / solo 2023 (tasa de respuesta: 99,54%)</t>
+          <t>Población cuyo motivo por su última visita al dentista fue por dolor de mandíbula (tasa de respuesta: 99,54%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P19C10_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P19C10_2023-Provincia-trans_dic.xlsx
@@ -597,10 +597,10 @@
       </c>
       <c r="C6" s="5" t="inlineStr"/>
       <c r="D6" s="5" t="n">
-        <v>0.01072338494731484</v>
+        <v>0.01039195857312229</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.006392637382387889</v>
+        <v>0.00509649834145399</v>
       </c>
     </row>
     <row r="7">
@@ -621,7 +621,7 @@
         <v>0.002238214964334202</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.002425767759852019</v>
+        <v>0.00242576775985202</v>
       </c>
     </row>
     <row r="8">
@@ -638,7 +638,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0005583769874025774</v>
+        <v>0.0005528552162643483</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01346958916196517</v>
+        <v>0.01575927910330054</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.007924058451889985</v>
+        <v>0.007903777199428899</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.007549565541435695</v>
+        <v>0.008560008339453092</v>
       </c>
     </row>
     <row r="10">
@@ -688,10 +688,10 @@
       </c>
       <c r="C11" s="5" t="inlineStr"/>
       <c r="D11" s="5" t="n">
-        <v>0.003933514548714692</v>
+        <v>0.003827183700178827</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.001820739326973031</v>
+        <v>0.00198242784265669</v>
       </c>
     </row>
     <row r="12">
@@ -703,10 +703,10 @@
       </c>
       <c r="C12" s="5" t="inlineStr"/>
       <c r="D12" s="5" t="n">
-        <v>0.02802859093653391</v>
+        <v>0.02896616270660966</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01346466031388585</v>
+        <v>0.01510860303399669</v>
       </c>
     </row>
     <row r="13">
@@ -739,10 +739,10 @@
       </c>
       <c r="C14" s="5" t="inlineStr"/>
       <c r="D14" s="5" t="n">
-        <v>0.000796736454916351</v>
+        <v>0.0008087479255392502</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.0004258118267592337</v>
+        <v>0.0004327718163177882</v>
       </c>
     </row>
     <row r="15">
@@ -754,10 +754,10 @@
       </c>
       <c r="C15" s="5" t="inlineStr"/>
       <c r="D15" s="5" t="n">
-        <v>0.0123622064665644</v>
+        <v>0.01340512389840271</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.007222230849443269</v>
+        <v>0.007298520954873491</v>
       </c>
     </row>
     <row r="16">
@@ -804,11 +804,11 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.0139298869415862</v>
+        <v>0.01175767728867509</v>
       </c>
       <c r="D18" s="5" t="inlineStr"/>
       <c r="E18" s="5" t="n">
-        <v>0.006244945157607511</v>
+        <v>0.006304680660890579</v>
       </c>
     </row>
     <row r="19">
@@ -856,10 +856,10 @@
       </c>
       <c r="C21" s="5" t="inlineStr"/>
       <c r="D21" s="5" t="n">
-        <v>0.007840957125399969</v>
+        <v>0.008296408986357931</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.003764831510087776</v>
+        <v>0.004010397028485446</v>
       </c>
     </row>
     <row r="22">
@@ -891,13 +891,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.003497312299421565</v>
+        <v>0.003365417101139462</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.00665294939376646</v>
+        <v>0.006635806427655947</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.006916609905439407</v>
+        <v>0.006688903410362096</v>
       </c>
     </row>
     <row r="24">
@@ -908,13 +908,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.02092957142754048</v>
+        <v>0.02011380222734612</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.02201991188052727</v>
+        <v>0.02093292527710095</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.01780214338871371</v>
+        <v>0.01758107135309816</v>
       </c>
     </row>
     <row r="25">
@@ -932,7 +932,7 @@
         <v>0.002389164428216474</v>
       </c>
       <c r="D25" s="5" t="n">
-        <v>0.007197191680242756</v>
+        <v>0.007197191680242754</v>
       </c>
       <c r="E25" s="5" t="n">
         <v>0.004852857712205338</v>
@@ -949,10 +949,10 @@
         <v>0</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.003093687648123403</v>
+        <v>0.003124861672766273</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.00208397461021626</v>
+        <v>0.00235726516388587</v>
       </c>
     </row>
     <row r="27">
@@ -963,13 +963,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.01434747552597003</v>
+        <v>0.01207263057070505</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.01642558489858597</v>
+        <v>0.01556040202555273</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.01011037839995721</v>
+        <v>0.01005660237376253</v>
       </c>
     </row>
     <row r="28">
@@ -984,13 +984,13 @@
         </is>
       </c>
       <c r="C28" s="5" t="n">
-        <v>0.003165421777846134</v>
+        <v>0.003165421777846135</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>0.006339570021474907</v>
+        <v>0.006339570021474908</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>0.004803967007297226</v>
+        <v>0.004803967007297227</v>
       </c>
     </row>
     <row r="29">
@@ -1001,13 +1001,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.00162456209404441</v>
+        <v>0.001593632443827996</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.004324573744528856</v>
+        <v>0.004224772903958522</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.003424482217022361</v>
+        <v>0.003490097040619472</v>
       </c>
     </row>
     <row r="30">
@@ -1018,13 +1018,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.006311647479383078</v>
+        <v>0.006034188647817207</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.008982351092309425</v>
+        <v>0.008925572661733721</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.006762913157927819</v>
+        <v>0.006598243935409579</v>
       </c>
     </row>
     <row r="31">
@@ -1186,10 +1186,10 @@
       </c>
       <c r="C7" s="6" t="inlineStr"/>
       <c r="D7" s="6" t="n">
-        <v>3319</v>
+        <v>3216</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>3902</v>
+        <v>3111</v>
       </c>
     </row>
     <row r="8">
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>586</v>
+        <v>580</v>
       </c>
     </row>
     <row r="11">
@@ -1255,13 +1255,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>6978</v>
+        <v>8164</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>4213</v>
+        <v>4202</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>7924</v>
+        <v>8985</v>
       </c>
     </row>
     <row r="12">
@@ -1311,10 +1311,10 @@
       </c>
       <c r="C14" s="6" t="inlineStr"/>
       <c r="D14" s="6" t="n">
-        <v>1344</v>
+        <v>1308</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1169</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="15">
@@ -1326,10 +1326,10 @@
       </c>
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="n">
-        <v>9578</v>
+        <v>9898</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>8643</v>
+        <v>9699</v>
       </c>
     </row>
     <row r="16">
@@ -1379,10 +1379,10 @@
       </c>
       <c r="C18" s="6" t="inlineStr"/>
       <c r="D18" s="6" t="n">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>337</v>
+        <v>342</v>
       </c>
     </row>
     <row r="19">
@@ -1394,10 +1394,10 @@
       </c>
       <c r="C19" s="6" t="inlineStr"/>
       <c r="D19" s="6" t="n">
-        <v>5187</v>
+        <v>5625</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>5708</v>
+        <v>5768</v>
       </c>
     </row>
     <row r="20">
@@ -1461,11 +1461,11 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>2637</v>
+        <v>2226</v>
       </c>
       <c r="D23" s="6" t="inlineStr"/>
       <c r="E23" s="6" t="n">
-        <v>2555</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="24">
@@ -1530,10 +1530,10 @@
       </c>
       <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="n">
-        <v>1972</v>
+        <v>2087</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1887</v>
+        <v>2010</v>
       </c>
     </row>
     <row r="28">
@@ -1582,13 +1582,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>2440</v>
+        <v>2348</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>4932</v>
+        <v>4920</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>9953</v>
+        <v>9626</v>
       </c>
     </row>
     <row r="31">
@@ -1599,13 +1599,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>14602</v>
+        <v>14033</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>16325</v>
+        <v>15519</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>25618</v>
+        <v>25300</v>
       </c>
     </row>
     <row r="32">
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>2507</v>
+        <v>2532</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>3296</v>
+        <v>3728</v>
       </c>
     </row>
     <row r="35">
@@ -1671,13 +1671,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>11063</v>
+        <v>9309</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>13310</v>
+        <v>12609</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>15988</v>
+        <v>15903</v>
       </c>
     </row>
     <row r="36">
@@ -1726,13 +1726,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>5520</v>
+        <v>5415</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>15679</v>
+        <v>15317</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>24051</v>
+        <v>24511</v>
       </c>
     </row>
     <row r="39">
@@ -1743,13 +1743,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>21445</v>
+        <v>20502</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>32565</v>
+        <v>32359</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>47497</v>
+        <v>46340</v>
       </c>
     </row>
     <row r="40">
